--- a/100000playlist_data.xlsx
+++ b/100000playlist_data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it-it\Desktop\IronHackLabs\lab-api-wrappers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -921,8 +916,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,18 +976,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1039,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,10 +1058,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,7 +1092,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1282,20 +1267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1296,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1318,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1329,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1340,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1351,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +1384,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1395,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1406,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1417,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1439,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1471,7 +1450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1461,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1493,7 +1472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1504,7 +1483,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1494,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1516,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1527,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1538,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1549,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1592,7 +1571,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +1582,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1593,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1636,7 +1615,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1647,7 +1626,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1637,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1669,7 +1648,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1659,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1691,7 +1670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1702,7 +1681,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +1692,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1724,7 +1703,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1735,7 +1714,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1757,7 +1736,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1768,7 +1747,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1758,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1790,7 +1769,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +1780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +1791,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1823,7 +1802,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1834,7 +1813,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1845,7 +1824,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1856,7 +1835,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1867,7 +1846,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1878,7 +1857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1889,7 +1868,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1900,7 +1879,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1911,7 +1890,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1922,7 +1901,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1933,7 +1912,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1944,7 +1923,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1955,7 +1934,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1945,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1977,7 +1956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1988,7 +1967,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1999,7 +1978,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +1989,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2021,7 +2000,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2011,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2043,7 +2022,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2054,7 +2033,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2065,7 +2044,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2076,7 +2055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2087,7 +2066,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2098,7 +2077,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2109,7 +2088,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2120,7 +2099,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2131,7 +2110,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2142,7 +2121,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2153,7 +2132,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -2164,7 +2143,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2175,7 +2154,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2186,7 +2165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2197,7 +2176,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2208,7 +2187,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2219,7 +2198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2230,7 +2209,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2241,7 +2220,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2252,7 +2231,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2263,7 +2242,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2274,7 +2253,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2285,7 +2264,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2296,7 +2275,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2307,7 +2286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2318,7 +2297,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2329,7 +2308,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2340,7 +2319,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -2351,7 +2330,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2362,7 +2341,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2373,7 +2352,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -2384,7 +2363,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -2395,7 +2374,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
